--- a/OBIE Offers.xlsx
+++ b/OBIE Offers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="95">
   <si>
     <t>Name</t>
   </si>
@@ -335,6 +335,14 @@
               $ref: '#/components/schemas/CustomerOffer'
 OfferFeeAmount
 AmountCurrency</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>CustomerOfferReference:
+              $ref: '#/components/schemas/CustomerOffer'
+URL</t>
   </si>
 </sst>
 </file>
@@ -722,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.55000000000000004"/>
@@ -1054,7 +1062,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="51" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="52.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4" t="s">
         <v>57</v>
       </c>
@@ -1072,6 +1080,12 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
+      <c r="H14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
